--- a/Packages/cn.etetet.wow/Luban/Config/Datas/Map.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Datas/Map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BE9584-DCA8-B140-9F08-15674A01FFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898FE6D5-1F77-2A4B-87CA-EE3612F5F5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,10 +131,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Map3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Copy</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -148,6 +144,10 @@
   </si>
   <si>
     <t>GateMap</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lordaeron</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +499,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -540,7 +540,7 @@
         <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -617,7 +617,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -625,10 +625,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
@@ -701,13 +701,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="F8" s="3">
         <v>1000</v>
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
